--- a/example/list.xlsx
+++ b/example/list.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\xls2lua\example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\jiangzhuohao_DESKTOP-5ONOMSB_mainline_6540\tools\xls-exporter\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B51EFE-B57D-41DF-944F-E8508C1ACB88}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61D6D850-06F0-49BC-8D3B-4624197BF8A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,10 +35,6 @@
   </si>
   <si>
     <t>string</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>//如果第一列不是unique列的话，整个文件会被输出成列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -90,7 +86,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>占位</t>
+    <t>list</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>//第一列的选项为list时，整个文件会被输出成列表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1394,7 +1394,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.95" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1411,32 +1411,32 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1447,7 +1447,7 @@
     </row>
     <row r="9" spans="1:3" s="3" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="4" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
@@ -1463,46 +1463,46 @@
     </row>
     <row r="11" spans="1:3" s="5" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B11" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="C11" s="7" t="s">
         <v>9</v>
-      </c>
-      <c r="C11" s="7" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="2">
         <v>100</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2">
         <v>200</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2">
         <v>300</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.95" customHeight="1" x14ac:dyDescent="0.15"/>
